--- a/ExerceExcel4/Islam_Shafaatul_Exercice04_OpersFoncCond.xlsx
+++ b/ExerceExcel4/Islam_Shafaatul_Exercice04_OpersFoncCond.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4fc197a25ccdc5fa/Desktop/GitHub2022/ExerceExcel4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_883F25CA4679BAF94D55383C713E0A79963B661D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14BDE610-A8E6-40EF-B059-6428928A1D3E}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="11_883F25CA4679BAF94D55383C713E0A79963B661D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC4F670C-D3E9-43DE-B4B4-3F56BB1C05A9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -289,7 +289,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="70">
   <si>
     <t>Ventes réalisées</t>
   </si>
@@ -574,6 +574,9 @@
       <t>S</t>
     </r>
   </si>
+  <si>
+    <t>DATE(2012; 01; 01)</t>
+  </si>
 </sst>
 </file>
 
@@ -584,7 +587,7 @@
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color theme="1"/>
@@ -758,6 +761,13 @@
       <i/>
       <sz val="8"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1332,7 +1342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection hidden="1"/>
@@ -1664,6 +1674,102 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -1672,26 +1778,6 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1714,110 +1800,54 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1842,6 +1872,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2167,7 +2201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AH55"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="AK29" sqref="AK29"/>
     </sheetView>
   </sheetViews>
@@ -2195,41 +2229,41 @@
   <sheetData>
     <row r="1" spans="2:34" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:34" ht="18.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="107"/>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="107"/>
-      <c r="AH2" s="107"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97"/>
+      <c r="AH2" s="97"/>
     </row>
     <row r="3" spans="2:34" ht="11" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -2240,122 +2274,122 @@
     </row>
     <row r="4" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:34" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="L5" s="109" t="s">
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="L5" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="109"/>
-      <c r="P5" s="109"/>
-      <c r="R5" s="110" t="s">
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="99"/>
+      <c r="R5" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="110"/>
-      <c r="T5" s="110"/>
-      <c r="U5" s="110"/>
-      <c r="V5" s="110"/>
-      <c r="W5" s="110"/>
-      <c r="X5" s="110"/>
-      <c r="Y5" s="110"/>
-      <c r="Z5" s="110"/>
-      <c r="AA5" s="110"/>
-      <c r="AB5" s="110"/>
-      <c r="AC5" s="110"/>
-      <c r="AD5" s="110"/>
-      <c r="AE5" s="110"/>
-      <c r="AF5" s="110"/>
-      <c r="AG5" s="110"/>
-      <c r="AH5" s="110"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="103"/>
+      <c r="AA5" s="103"/>
+      <c r="AB5" s="103"/>
+      <c r="AC5" s="103"/>
+      <c r="AD5" s="103"/>
+      <c r="AE5" s="103"/>
+      <c r="AF5" s="103"/>
+      <c r="AG5" s="103"/>
+      <c r="AH5" s="103"/>
     </row>
     <row r="6" spans="2:34" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:34" ht="10.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="119" t="s">
+      <c r="D7" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="111" t="s">
+      <c r="E7" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="121" t="s">
+      <c r="F7" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="113" t="s">
+      <c r="G7" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="114"/>
-      <c r="I7" s="94" t="s">
+      <c r="H7" s="107"/>
+      <c r="I7" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="95"/>
+      <c r="J7" s="119"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="115" t="s">
+      <c r="L7" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="116"/>
-      <c r="N7" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="O7" s="116"/>
-      <c r="P7" s="103" t="s">
+      <c r="M7" s="109"/>
+      <c r="N7" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="109"/>
+      <c r="P7" s="122" t="s">
         <v>42</v>
       </c>
       <c r="Q7" s="17"/>
-      <c r="R7" s="96" t="s">
+      <c r="R7" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="S7" s="97"/>
+      <c r="S7" s="111"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="96" t="s">
+      <c r="U7" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="V7" s="97"/>
-      <c r="W7" s="96" t="s">
+      <c r="V7" s="111"/>
+      <c r="W7" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="X7" s="97"/>
-      <c r="Y7" s="96" t="s">
+      <c r="X7" s="111"/>
+      <c r="Y7" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="Z7" s="97"/>
-      <c r="AA7" s="96" t="s">
+      <c r="Z7" s="111"/>
+      <c r="AA7" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="AB7" s="97"/>
-      <c r="AC7" s="96" t="s">
+      <c r="AB7" s="111"/>
+      <c r="AC7" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="AD7" s="97"/>
-      <c r="AE7" s="96" t="s">
+      <c r="AD7" s="111"/>
+      <c r="AE7" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="AF7" s="97"/>
+      <c r="AF7" s="111"/>
       <c r="AG7" s="13"/>
-      <c r="AH7" s="105" t="s">
+      <c r="AH7" s="124" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:34" ht="10.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="102"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="122"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="117"/>
       <c r="G8" s="18" t="s">
         <v>9</v>
       </c>
@@ -2381,7 +2415,7 @@
       <c r="O8" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="104"/>
+      <c r="P8" s="123"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="25" t="s">
         <v>9</v>
@@ -2427,7 +2461,7 @@
         <v>40</v>
       </c>
       <c r="AG8" s="16"/>
-      <c r="AH8" s="106"/>
+      <c r="AH8" s="125"/>
     </row>
     <row r="9" spans="2:34" ht="10.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="44" t="s">
@@ -4431,46 +4465,46 @@
       <c r="AH28" s="5"/>
     </row>
     <row r="29" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B29" s="98" t="s">
+      <c r="B29" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="99"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="98" t="s">
+      <c r="C29" s="101"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="100"/>
-      <c r="G29" s="98" t="s">
+      <c r="F29" s="102"/>
+      <c r="G29" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="100"/>
-      <c r="R29" s="98" t="s">
+      <c r="H29" s="101"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="101"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="102"/>
+      <c r="R29" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="S29" s="99"/>
-      <c r="T29" s="99"/>
-      <c r="U29" s="99"/>
-      <c r="V29" s="99"/>
-      <c r="W29" s="99"/>
-      <c r="X29" s="99"/>
-      <c r="Y29" s="99"/>
-      <c r="Z29" s="99"/>
-      <c r="AA29" s="99"/>
-      <c r="AB29" s="99"/>
-      <c r="AC29" s="99"/>
-      <c r="AD29" s="99"/>
-      <c r="AE29" s="99"/>
-      <c r="AF29" s="99"/>
-      <c r="AG29" s="99"/>
-      <c r="AH29" s="100"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="101"/>
+      <c r="U29" s="101"/>
+      <c r="V29" s="101"/>
+      <c r="W29" s="101"/>
+      <c r="X29" s="101"/>
+      <c r="Y29" s="101"/>
+      <c r="Z29" s="101"/>
+      <c r="AA29" s="101"/>
+      <c r="AB29" s="101"/>
+      <c r="AC29" s="101"/>
+      <c r="AD29" s="101"/>
+      <c r="AE29" s="101"/>
+      <c r="AF29" s="101"/>
+      <c r="AG29" s="101"/>
+      <c r="AH29" s="102"/>
     </row>
     <row r="31" spans="2:34" x14ac:dyDescent="0.25">
       <c r="E31" s="10"/>
@@ -4849,6 +4883,16 @@
     <sortCondition ref="AL9"/>
   </sortState>
   <mergeCells count="26">
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="R29:AH29"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AH7:AH8"/>
     <mergeCell ref="B2:AH2"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="L5:P5"/>
@@ -4865,16 +4909,6 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="U7:V7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="R29:AH29"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AH7:AH8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="125" orientation="portrait" r:id="rId1"/>
@@ -4890,121 +4924,129 @@
   <dimension ref="B2:AH33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z20" sqref="Z20"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.75" style="92"/>
     <col min="2" max="2" width="31.5" style="92" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.75" style="92"/>
+    <col min="3" max="3" width="10.75" style="92"/>
+    <col min="4" max="4" width="16.75" style="92" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="92" customWidth="1"/>
+    <col min="6" max="8" width="10.75" style="92"/>
+    <col min="9" max="9" width="14.625" style="92" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="92" customWidth="1"/>
+    <col min="11" max="16384" width="10.75" style="92"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:34" ht="20.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
-      <c r="Z2" s="129"/>
-      <c r="AA2" s="129"/>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="129"/>
-      <c r="AD2" s="129"/>
-      <c r="AE2" s="129"/>
-      <c r="AF2" s="129"/>
-      <c r="AG2" s="129"/>
-      <c r="AH2" s="129"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
+      <c r="X2" s="95"/>
+      <c r="Y2" s="95"/>
+      <c r="Z2" s="95"/>
+      <c r="AA2" s="95"/>
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="95"/>
+      <c r="AD2" s="95"/>
+      <c r="AE2" s="95"/>
+      <c r="AF2" s="95"/>
+      <c r="AG2" s="95"/>
+      <c r="AH2" s="95"/>
     </row>
     <row r="3" spans="2:34" ht="10.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="96" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:34" ht="10.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:34" ht="10.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="127" t="s">
+      <c r="B5" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="L5" s="131" t="s">
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="L5" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="131"/>
-      <c r="N5" s="131"/>
-      <c r="O5" s="131"/>
-      <c r="P5" s="131"/>
-      <c r="R5" s="132" t="s">
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="127"/>
+      <c r="R5" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="132"/>
-      <c r="T5" s="132"/>
-      <c r="U5" s="132"/>
-      <c r="V5" s="132"/>
-      <c r="W5" s="132"/>
-      <c r="X5" s="132"/>
-      <c r="Y5" s="132"/>
-      <c r="Z5" s="132"/>
-      <c r="AA5" s="132"/>
-      <c r="AB5" s="132"/>
-      <c r="AC5" s="132"/>
-      <c r="AD5" s="132"/>
-      <c r="AE5" s="132"/>
-      <c r="AF5" s="132"/>
-      <c r="AG5" s="132"/>
-      <c r="AH5" s="132"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="128"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="128"/>
+      <c r="Y5" s="128"/>
+      <c r="Z5" s="128"/>
+      <c r="AA5" s="128"/>
+      <c r="AB5" s="128"/>
+      <c r="AC5" s="128"/>
+      <c r="AD5" s="128"/>
+      <c r="AE5" s="128"/>
+      <c r="AF5" s="128"/>
+      <c r="AG5" s="128"/>
+      <c r="AH5" s="128"/>
     </row>
     <row r="6" spans="2:34" ht="10.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:34" ht="10.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="93" t="s">
+      <c r="E7" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="93" t="s">
+      <c r="F7" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="92" t="s">
+      <c r="H7" s="134"/>
+      <c r="I7" s="134" t="s">
         <v>48</v>
       </c>
+      <c r="J7" s="134"/>
       <c r="L7" s="92" t="s">
         <v>2</v>
       </c>
@@ -5040,18 +5082,21 @@
       </c>
     </row>
     <row r="8" spans="2:34" ht="10.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="92" t="s">
+      <c r="B8" s="134"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="92" t="s">
+      <c r="H8" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="92" t="s">
+      <c r="I8" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="92" t="s">
+      <c r="J8" s="133" t="s">
         <v>4</v>
       </c>
       <c r="L8" s="92" t="s">
@@ -5076,8 +5121,11 @@
       <c r="C9" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="93">
+      <c r="D9" s="136">
         <v>38226</v>
+      </c>
+      <c r="E9" s="137" t="s">
+        <v>69</v>
       </c>
       <c r="G9" s="92">
         <v>21.68</v>
@@ -5117,7 +5165,7 @@
       <c r="C10" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="93">
+      <c r="D10" s="136">
         <v>37601</v>
       </c>
       <c r="G10" s="92">
@@ -5158,7 +5206,7 @@
       <c r="C11" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="93">
+      <c r="D11" s="136">
         <v>35826</v>
       </c>
       <c r="G11" s="92">
@@ -5199,7 +5247,7 @@
       <c r="C12" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="93">
+      <c r="D12" s="136">
         <v>35403</v>
       </c>
       <c r="G12" s="92">
@@ -5240,7 +5288,7 @@
       <c r="C13" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="93">
+      <c r="D13" s="136">
         <v>33093</v>
       </c>
       <c r="G13" s="92">
@@ -5281,7 +5329,7 @@
       <c r="C14" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="93">
+      <c r="D14" s="136">
         <v>37900</v>
       </c>
       <c r="G14" s="92">
@@ -5322,7 +5370,7 @@
       <c r="C15" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="93">
+      <c r="D15" s="136">
         <v>35590</v>
       </c>
       <c r="G15" s="92">
@@ -5363,7 +5411,7 @@
       <c r="C16" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="93">
+      <c r="D16" s="136">
         <v>35192</v>
       </c>
       <c r="G16" s="92">
@@ -5404,7 +5452,7 @@
       <c r="C17" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="93">
+      <c r="D17" s="136">
         <v>36628</v>
       </c>
       <c r="G17" s="92">
@@ -5445,7 +5493,7 @@
       <c r="C18" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="93">
+      <c r="D18" s="136">
         <v>30115</v>
       </c>
       <c r="G18" s="92">
@@ -5486,7 +5534,7 @@
       <c r="C19" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="93">
+      <c r="D19" s="136">
         <v>41231</v>
       </c>
       <c r="G19" s="92">
@@ -5527,7 +5575,7 @@
       <c r="C20" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="93">
+      <c r="D20" s="136">
         <v>31824</v>
       </c>
       <c r="G20" s="92">
@@ -5568,7 +5616,7 @@
       <c r="C21" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="93">
+      <c r="D21" s="136">
         <v>38150</v>
       </c>
       <c r="G21" s="92">
@@ -5609,7 +5657,7 @@
       <c r="C22" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="93">
+      <c r="D22" s="136">
         <v>32891</v>
       </c>
       <c r="G22" s="92">
@@ -5650,7 +5698,7 @@
       <c r="C23" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="93">
+      <c r="D23" s="136">
         <v>41102</v>
       </c>
       <c r="G23" s="92">
@@ -5691,7 +5739,7 @@
       <c r="C24" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="93">
+      <c r="D24" s="136">
         <v>29465</v>
       </c>
       <c r="G24" s="92">
@@ -5732,7 +5780,7 @@
       <c r="C25" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="93">
+      <c r="D25" s="136">
         <v>30711</v>
       </c>
       <c r="G25" s="92">
@@ -5788,12 +5836,20 @@
     <row r="32" spans="2:18" ht="10.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="10.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="10">
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="L5:P5"/>
     <mergeCell ref="R5:AH5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5817,15 +5873,15 @@
   <sheetData>
     <row r="1" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:4" ht="13" x14ac:dyDescent="0.25">
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
     </row>
     <row r="3" spans="2:4" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="124" t="s">
+      <c r="C4" s="130" t="s">
         <v>59</v>
       </c>
       <c r="D4" s="88" t="s">
@@ -5833,25 +5889,25 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="125"/>
+      <c r="C5" s="131"/>
       <c r="D5" s="70" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="125"/>
+      <c r="C6" s="131"/>
       <c r="D6" s="71" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="125"/>
+      <c r="C7" s="131"/>
       <c r="D7" s="70" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="126"/>
+      <c r="C8" s="132"/>
       <c r="D8" s="89" t="s">
         <v>56</v>
       </c>
@@ -5871,7 +5927,7 @@
       <c r="C11" s="72"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="124" t="s">
+      <c r="C12" s="130" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="88" t="s">
@@ -5879,43 +5935,43 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="125"/>
+      <c r="C13" s="131"/>
       <c r="D13" s="70" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="125"/>
+      <c r="C14" s="131"/>
       <c r="D14" s="68" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="125"/>
+      <c r="C15" s="131"/>
       <c r="D15" s="87" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="125"/>
+      <c r="C16" s="131"/>
       <c r="D16" s="68" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="125"/>
+      <c r="C17" s="131"/>
       <c r="D17" s="87" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="125"/>
+      <c r="C18" s="131"/>
       <c r="D18" s="68" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="126"/>
+      <c r="C19" s="132"/>
       <c r="D19" s="89" t="s">
         <v>61</v>
       </c>
